--- a/Operation management/랄프로렌 매장 수.xlsx
+++ b/Operation management/랄프로렌 매장 수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\Git\Mini-project\Operation management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77607212-0AAA-4AF2-A8B9-8909052B276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F0F516-7E24-44B8-B4DC-68F1DCA50D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7ED03E86-202B-4979-B846-C3B072040A14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>지역 / 매장 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,7 +50,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동일 주소지내 다수의 세부 브랜드 중 1개만(여성용)</t>
+    <t>고양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남양주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일 주소지내 점포 수(브랜드별 매장 합쳐서 1개로 간주)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,9 +289,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,6 +309,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,395 +628,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82469A58-0745-46C6-931B-5BFA4C3D228C}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
         <v>25</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
         <v>2</v>
       </c>
-      <c r="B33" s="3">
-        <f>SUM(B2:F32)</f>
-        <v>52</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3">
+        <f>SUM(B2:F37)</f>
+        <v>88</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
+  <mergeCells count="38">
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B33:F33"/>
@@ -887,6 +1120,23 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
